--- a/data/Jobs/2022/mb-unemployment-rates 04-21.xlsx
+++ b/data/Jobs/2022/mb-unemployment-rates 04-21.xlsx
@@ -43844,10 +43844,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f3dc68d1-c7e7-41c5-bc1e-27f8873ad3d3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="36fa22c9-99b0-4d6c-b13f-c2885a394772">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2C67AF9-57BB-4C55-BDFB-5201E17FE3E1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4B72F6-B7D6-421C-9B79-79DC0D7A70E8}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FE2891F-F375-47CE-83D3-1BCF8B89C785}"/>
 </file>